--- a/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -659,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>120000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -681,7 +681,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>240000</v>
+        <v>480000</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -692,7 +695,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>480000</v>
+        <v>960000</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -703,7 +709,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>960000</v>
+        <v>1920000</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -714,7 +723,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>1920000</v>
+        <v>5120000</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -725,10 +737,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -739,10 +751,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>10240000</v>
+        <v>20480000</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -826,7 +838,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1649,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1688,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>16000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1699,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>40000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1710,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>80000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1721,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>240000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1732,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>480000</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1743,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1754,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>1920000</v>
+        <v>3840000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1765,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>3840000</v>
+        <v>7680000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1776,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>7680000</v>
+        <v>15360000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1787,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>15360000</v>
+        <v>40960000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1798,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>40960000</v>
+        <v>81920000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1809,11 +1821,12 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>81920000</v>
+        <v>163840000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -144,11 +144,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -156,17 +158,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -573,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -650,6 +655,9 @@
       <c r="C6" s="3">
         <v>60000</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
@@ -661,6 +669,9 @@
       <c r="C7" s="3">
         <v>120000</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
@@ -672,6 +683,9 @@
       <c r="C8" s="3">
         <v>240000</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
@@ -684,7 +698,7 @@
         <v>480000</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -847,7 +861,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1661,7 +1675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -642,7 +642,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>30000</v>
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -653,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -667,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -681,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -695,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>480000</v>
+        <v>960000</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -709,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -723,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>1920000</v>
+        <v>5120000</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -737,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -751,25 +754,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>10240000</v>
+        <v>20480000</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20480000</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
@@ -842,12 +836,7 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -992,11 +981,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27">
       <c r="A1" s="1" t="s">
@@ -1026,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>30000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1037,10 +1030,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="D3" s="3">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1051,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>60000</v>
+        <v>600000</v>
       </c>
       <c r="D4" s="3">
-        <v>120000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1065,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>120000</v>
+        <v>1800000</v>
       </c>
       <c r="D5" s="3">
-        <v>240000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1079,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>240000</v>
-      </c>
-      <c r="D6" s="10">
-        <v>480000</v>
+        <v>3600000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7200000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1092,11 +1085,11 @@
       <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
-        <v>480000</v>
-      </c>
-      <c r="D7" s="10">
-        <v>900000</v>
+      <c r="C7" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14400000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1106,11 +1099,11 @@
       <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
-        <v>900000</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1800000</v>
+      <c r="C8" s="3">
+        <v>14400000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>28800000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1120,11 +1113,11 @@
       <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
-        <v>1800000</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3600000</v>
+      <c r="C9" s="3">
+        <v>28800000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>57600000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1134,11 +1127,11 @@
       <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="C10" s="10">
-        <v>3600000</v>
-      </c>
-      <c r="D10" s="10">
-        <v>7200000</v>
+      <c r="C10" s="3">
+        <v>57600000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>115200000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1148,11 +1141,11 @@
       <c r="B11" s="10">
         <v>10</v>
       </c>
-      <c r="C11" s="10">
-        <v>7200000</v>
-      </c>
-      <c r="D11" s="10">
-        <v>14400000</v>
+      <c r="C11" s="3">
+        <v>115200000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>307200000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1162,11 +1155,11 @@
       <c r="B12" s="10">
         <v>11</v>
       </c>
-      <c r="C12" s="10">
-        <v>14400000</v>
-      </c>
-      <c r="D12">
-        <v>28800000</v>
+      <c r="C12" s="3">
+        <v>307200000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>614400000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1176,23 +1169,14 @@
       <c r="B13" s="10">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>28800000</v>
-      </c>
-      <c r="D13">
-        <v>57600000</v>
-      </c>
+      <c r="C13" s="3">
+        <v>614400000</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>57600000</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="zp|转盘" sheetId="10" r:id="rId4"/>
     <sheet name="jd|金蛋进度" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1657,9 +1657,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>8000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1698,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>40000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1709,7 +1709,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>80000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1720,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>240000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>480000</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1742,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1753,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>1920000</v>
+        <v>3840000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1764,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>3840000</v>
+        <v>7680000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1775,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>7680000</v>
+        <v>15360000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>15360000</v>
+        <v>40960000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1797,7 +1797,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>40960000</v>
+        <v>81920000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1808,17 +1808,6 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>81920000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
         <v>163840000</v>
       </c>
     </row>

--- a/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="zp|转盘" sheetId="10" r:id="rId4"/>
     <sheet name="jd|金蛋进度" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>image|图标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲸币</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -126,6 +122,9 @@
   <si>
     <t>pay_icon_gold3</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1243,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1266,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1289,10 +1288,10 @@
         <v>1.2</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1312,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1335,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1358,10 +1357,10 @@
         <v>1.3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1381,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1404,10 +1403,10 @@
         <v>1.4</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1427,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1450,10 +1449,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1473,10 +1472,10 @@
         <v>1.2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1496,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1519,10 +1518,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1542,10 +1541,10 @@
         <v>1.3</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1565,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1588,10 +1587,10 @@
         <v>1.4</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1659,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_cs_defen_cfg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>300000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>300000</v>
+        <v>60000</v>
       </c>
       <c r="D3" s="3">
-        <v>600000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1043,10 +1043,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>600000</v>
+        <v>180000</v>
       </c>
       <c r="D4" s="3">
-        <v>1800000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1057,10 +1057,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>1800000</v>
+        <v>360000</v>
       </c>
       <c r="D5" s="3">
-        <v>3600000</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1071,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>3600000</v>
+        <v>720000</v>
       </c>
       <c r="D6" s="3">
-        <v>7200000</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1085,10 +1085,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>7200000</v>
+        <v>1440000</v>
       </c>
       <c r="D7" s="3">
-        <v>14400000</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1099,10 +1099,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>14400000</v>
+        <v>2880000</v>
       </c>
       <c r="D8" s="3">
-        <v>28800000</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1113,10 +1113,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>28800000</v>
+        <v>5760000</v>
       </c>
       <c r="D9" s="3">
-        <v>57600000</v>
+        <v>11520000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1127,10 +1127,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>57600000</v>
+        <v>11520000</v>
       </c>
       <c r="D10" s="3">
-        <v>115200000</v>
+        <v>30720000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1141,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>115200000</v>
+        <v>30720000</v>
       </c>
       <c r="D11" s="3">
-        <v>307200000</v>
+        <v>61440000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>307200000</v>
+        <v>61440000</v>
       </c>
       <c r="D12" s="3">
-        <v>614400000</v>
+        <v>122880000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1169,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>614400000</v>
+        <v>122880000</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1180,7 +1180,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
